--- a/data/pca/factorExposure/factorExposure_2015-09-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02706284071657646</v>
+        <v>0.02166837603248111</v>
       </c>
       <c r="C2">
-        <v>-0.03167904649871302</v>
+        <v>-0.04359300778053811</v>
       </c>
       <c r="D2">
-        <v>0.116646463954618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1303407436666769</v>
+      </c>
+      <c r="E2">
+        <v>-0.03196464139886474</v>
+      </c>
+      <c r="F2">
+        <v>0.01884859669057998</v>
+      </c>
+      <c r="G2">
+        <v>-0.1101714271191398</v>
+      </c>
+      <c r="H2">
+        <v>-0.01469093421417809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.003799115576411949</v>
+        <v>-0.008943307574487351</v>
       </c>
       <c r="C3">
-        <v>-0.05834706144083349</v>
+        <v>-0.04262063647593763</v>
       </c>
       <c r="D3">
-        <v>0.06027774501754303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04663317311066246</v>
+      </c>
+      <c r="E3">
+        <v>-0.05055334473649978</v>
+      </c>
+      <c r="F3">
+        <v>0.022537210765122</v>
+      </c>
+      <c r="G3">
+        <v>-0.1196150122642905</v>
+      </c>
+      <c r="H3">
+        <v>0.005984992018558012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05016454731374254</v>
+        <v>0.04249898056091967</v>
       </c>
       <c r="C4">
-        <v>-0.06843888714081936</v>
+        <v>-0.08433962892294741</v>
       </c>
       <c r="D4">
-        <v>0.130121040470073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1485550130965554</v>
+      </c>
+      <c r="E4">
+        <v>-0.04692119486261537</v>
+      </c>
+      <c r="F4">
+        <v>0.06907761160365572</v>
+      </c>
+      <c r="G4">
+        <v>0.02911894566285166</v>
+      </c>
+      <c r="H4">
+        <v>-0.02793871385666309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03275160701417932</v>
+        <v>0.0324139837564329</v>
       </c>
       <c r="C6">
-        <v>-0.02488470986778942</v>
+        <v>-0.03330799814880207</v>
       </c>
       <c r="D6">
-        <v>0.1504692797623245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1388371522695787</v>
+      </c>
+      <c r="E6">
+        <v>-0.0009175130595823222</v>
+      </c>
+      <c r="F6">
+        <v>0.06599064877933389</v>
+      </c>
+      <c r="G6">
+        <v>-0.04526037036369317</v>
+      </c>
+      <c r="H6">
+        <v>-0.02744916150628748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0167621252955517</v>
+        <v>0.01247034455747588</v>
       </c>
       <c r="C7">
-        <v>-0.03176518932846636</v>
+        <v>-0.03834313026490194</v>
       </c>
       <c r="D7">
-        <v>0.110415334093056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09723733531846847</v>
+      </c>
+      <c r="E7">
+        <v>0.01419982264134655</v>
+      </c>
+      <c r="F7">
+        <v>0.03038362465417814</v>
+      </c>
+      <c r="G7">
+        <v>-0.05588676369279715</v>
+      </c>
+      <c r="H7">
+        <v>-0.03298338344147697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01131492910876242</v>
+        <v>0.004463899196680244</v>
       </c>
       <c r="C8">
-        <v>-0.03507242098203169</v>
+        <v>-0.04105501939984649</v>
       </c>
       <c r="D8">
-        <v>0.06795126889378016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07729976707963451</v>
+      </c>
+      <c r="E8">
+        <v>-0.01507993024246422</v>
+      </c>
+      <c r="F8">
+        <v>0.06343327763395225</v>
+      </c>
+      <c r="G8">
+        <v>-0.07910413048368584</v>
+      </c>
+      <c r="H8">
+        <v>0.01460128285113073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0391634123190568</v>
+        <v>0.0314116316487236</v>
       </c>
       <c r="C9">
-        <v>-0.06153583626267514</v>
+        <v>-0.07356745011967195</v>
       </c>
       <c r="D9">
-        <v>0.1201742650803281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1260077044867972</v>
+      </c>
+      <c r="E9">
+        <v>-0.0300466194643741</v>
+      </c>
+      <c r="F9">
+        <v>0.04174548972723573</v>
+      </c>
+      <c r="G9">
+        <v>0.02259344632581009</v>
+      </c>
+      <c r="H9">
+        <v>-0.02219290155299148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1321547334767463</v>
+        <v>0.1831103690776074</v>
       </c>
       <c r="C10">
-        <v>0.1870482804921071</v>
+        <v>0.166392531130573</v>
       </c>
       <c r="D10">
-        <v>0.002092551076735876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.008001619117075512</v>
+      </c>
+      <c r="E10">
+        <v>-0.02994035196268104</v>
+      </c>
+      <c r="F10">
+        <v>0.04295785737631472</v>
+      </c>
+      <c r="G10">
+        <v>0.02175788501634491</v>
+      </c>
+      <c r="H10">
+        <v>0.05768463610518001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03329533773430089</v>
+        <v>0.02579530536288443</v>
       </c>
       <c r="C11">
-        <v>-0.04427076026621468</v>
+        <v>-0.05276677857448606</v>
       </c>
       <c r="D11">
-        <v>0.06232262438119889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0543678712537413</v>
+      </c>
+      <c r="E11">
+        <v>0.01904729370332896</v>
+      </c>
+      <c r="F11">
+        <v>-0.009413547496275532</v>
+      </c>
+      <c r="G11">
+        <v>-0.02071923961205219</v>
+      </c>
+      <c r="H11">
+        <v>-0.03122008120393589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03854893808983911</v>
+        <v>0.0285673785030102</v>
       </c>
       <c r="C12">
-        <v>-0.04656556107936911</v>
+        <v>-0.05443988713585716</v>
       </c>
       <c r="D12">
-        <v>0.06860340133877656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05401974344207657</v>
+      </c>
+      <c r="E12">
+        <v>0.0117389342780784</v>
+      </c>
+      <c r="F12">
+        <v>-0.01564081382939204</v>
+      </c>
+      <c r="G12">
+        <v>-0.02233841736850627</v>
+      </c>
+      <c r="H12">
+        <v>-0.04747400911776787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01184701023250806</v>
+        <v>0.01264618630837748</v>
       </c>
       <c r="C13">
-        <v>-0.03800494643080282</v>
+        <v>-0.04673472779824877</v>
       </c>
       <c r="D13">
-        <v>0.1496058493822675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.158501716479978</v>
+      </c>
+      <c r="E13">
+        <v>0.00556237574742851</v>
+      </c>
+      <c r="F13">
+        <v>0.06486848475570427</v>
+      </c>
+      <c r="G13">
+        <v>-0.06402498289337839</v>
+      </c>
+      <c r="H13">
+        <v>-0.004095494381546965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.003615821700396925</v>
+        <v>0.004343986421931567</v>
       </c>
       <c r="C14">
-        <v>-0.02571614981943775</v>
+        <v>-0.02881699952404501</v>
       </c>
       <c r="D14">
-        <v>0.1058899160340281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1052100424402668</v>
+      </c>
+      <c r="E14">
+        <v>-0.006633283007222273</v>
+      </c>
+      <c r="F14">
+        <v>0.02967120060549971</v>
+      </c>
+      <c r="G14">
+        <v>-0.06909632856210891</v>
+      </c>
+      <c r="H14">
+        <v>-0.06877929520668176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00268033204982466</v>
+        <v>0.001533887664080112</v>
       </c>
       <c r="C15">
-        <v>-0.006017334051287515</v>
+        <v>-0.0145616392636592</v>
       </c>
       <c r="D15">
-        <v>0.01213991248019045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04111868953955942</v>
+      </c>
+      <c r="E15">
+        <v>-0.006303733732034785</v>
+      </c>
+      <c r="F15">
+        <v>0.006983446244689678</v>
+      </c>
+      <c r="G15">
+        <v>-0.01892928940353334</v>
+      </c>
+      <c r="H15">
+        <v>-0.01019259479285354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02966825083388673</v>
+        <v>0.02333651829505909</v>
       </c>
       <c r="C16">
-        <v>-0.04553421859496546</v>
+        <v>-0.05105708491922398</v>
       </c>
       <c r="D16">
-        <v>0.0724149701118738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06000154513165903</v>
+      </c>
+      <c r="E16">
+        <v>0.006641102882606288</v>
+      </c>
+      <c r="F16">
+        <v>0.002577802463833411</v>
+      </c>
+      <c r="G16">
+        <v>-0.02913067198237792</v>
+      </c>
+      <c r="H16">
+        <v>-0.04607563341425241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0106909675688209</v>
+        <v>0.00578260659910173</v>
       </c>
       <c r="C19">
-        <v>-0.03225287977202349</v>
+        <v>-0.02815236073408574</v>
       </c>
       <c r="D19">
-        <v>0.1526460468076986</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1141092296749953</v>
+      </c>
+      <c r="E19">
+        <v>-0.03981470730851892</v>
+      </c>
+      <c r="F19">
+        <v>0.007053693718051388</v>
+      </c>
+      <c r="G19">
+        <v>-0.04328523890634074</v>
+      </c>
+      <c r="H19">
+        <v>-0.05600742964106468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01411300488118553</v>
+        <v>0.01278322630407768</v>
       </c>
       <c r="C20">
-        <v>-0.03618557190470691</v>
+        <v>-0.04134730929233238</v>
       </c>
       <c r="D20">
-        <v>0.09698571944385961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1062588357458079</v>
+      </c>
+      <c r="E20">
+        <v>-0.02721909963450473</v>
+      </c>
+      <c r="F20">
+        <v>0.03139145509914596</v>
+      </c>
+      <c r="G20">
+        <v>-0.03938910800041971</v>
+      </c>
+      <c r="H20">
+        <v>-0.04461549819114344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01101411902431861</v>
+        <v>0.005546797590315631</v>
       </c>
       <c r="C21">
-        <v>-0.03824368043900751</v>
+        <v>-0.04627314503459155</v>
       </c>
       <c r="D21">
-        <v>0.1603498060481182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1554523141620281</v>
+      </c>
+      <c r="E21">
+        <v>-0.05169441534504972</v>
+      </c>
+      <c r="F21">
+        <v>0.07116957353560099</v>
+      </c>
+      <c r="G21">
+        <v>-0.06204324902377026</v>
+      </c>
+      <c r="H21">
+        <v>-0.06698159347415376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002502182786411386</v>
+        <v>0.009194284500156134</v>
       </c>
       <c r="C22">
-        <v>-0.05036962454093512</v>
+        <v>-0.05227826376494007</v>
       </c>
       <c r="D22">
-        <v>0.1374246984803268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1979675548147438</v>
+      </c>
+      <c r="E22">
+        <v>-0.00283020735030163</v>
+      </c>
+      <c r="F22">
+        <v>0.09076758037744694</v>
+      </c>
+      <c r="G22">
+        <v>-0.09143646662889973</v>
+      </c>
+      <c r="H22">
+        <v>0.2567824100989403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002677360444436646</v>
+        <v>0.009680746746584368</v>
       </c>
       <c r="C23">
-        <v>-0.05069109465464017</v>
+        <v>-0.05264840805358</v>
       </c>
       <c r="D23">
-        <v>0.1368782641145121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1980742193511369</v>
+      </c>
+      <c r="E23">
+        <v>-0.004945802726300117</v>
+      </c>
+      <c r="F23">
+        <v>0.08901100282987376</v>
+      </c>
+      <c r="G23">
+        <v>-0.0898699980755167</v>
+      </c>
+      <c r="H23">
+        <v>0.2575488863529739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03653249562136102</v>
+        <v>0.02599927624808444</v>
       </c>
       <c r="C24">
-        <v>-0.05826277826924188</v>
+        <v>-0.06336710860636793</v>
       </c>
       <c r="D24">
-        <v>0.07186811022493279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05991392107771077</v>
+      </c>
+      <c r="E24">
+        <v>0.008319742604444026</v>
+      </c>
+      <c r="F24">
+        <v>0.003900266906144329</v>
+      </c>
+      <c r="G24">
+        <v>-0.03031429267949941</v>
+      </c>
+      <c r="H24">
+        <v>-0.05795651712766125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04144950591503254</v>
+        <v>0.03143555720453309</v>
       </c>
       <c r="C25">
-        <v>-0.05244470436431812</v>
+        <v>-0.06081896637770193</v>
       </c>
       <c r="D25">
-        <v>0.07145709337213119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06140857644747419</v>
+      </c>
+      <c r="E25">
+        <v>0.0007238226410476355</v>
+      </c>
+      <c r="F25">
+        <v>-0.003633088009173644</v>
+      </c>
+      <c r="G25">
+        <v>-0.01721456324511816</v>
+      </c>
+      <c r="H25">
+        <v>-0.02890590209490075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01369132084066941</v>
+        <v>0.01159754126942113</v>
       </c>
       <c r="C26">
-        <v>-0.01671988811038376</v>
+        <v>-0.02550530959982023</v>
       </c>
       <c r="D26">
-        <v>0.07587798688863127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07150870782116947</v>
+      </c>
+      <c r="E26">
+        <v>-0.0002288618778291232</v>
+      </c>
+      <c r="F26">
+        <v>0.02922494749489896</v>
+      </c>
+      <c r="G26">
+        <v>-0.03943722867087062</v>
+      </c>
+      <c r="H26">
+        <v>-0.04116077252641167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1959179881200481</v>
+        <v>0.2612545680767816</v>
       </c>
       <c r="C28">
-        <v>0.249878394227259</v>
+        <v>0.2137999857411014</v>
       </c>
       <c r="D28">
-        <v>-0.005278495401832737</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.005119222117190478</v>
+      </c>
+      <c r="E28">
+        <v>-0.05603535625572003</v>
+      </c>
+      <c r="F28">
+        <v>0.0445817834880032</v>
+      </c>
+      <c r="G28">
+        <v>0.04395118261100954</v>
+      </c>
+      <c r="H28">
+        <v>0.05638363755737173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003075894551817524</v>
+        <v>0.004426389561845497</v>
       </c>
       <c r="C29">
-        <v>-0.02462943395265946</v>
+        <v>-0.02813648364251221</v>
       </c>
       <c r="D29">
-        <v>0.09841110702847744</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1036906090114922</v>
+      </c>
+      <c r="E29">
+        <v>0.00628207042760548</v>
+      </c>
+      <c r="F29">
+        <v>0.0463012573220138</v>
+      </c>
+      <c r="G29">
+        <v>-0.06098063273596552</v>
+      </c>
+      <c r="H29">
+        <v>-0.06327405725906303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02989800867472634</v>
+        <v>0.02825200878899346</v>
       </c>
       <c r="C30">
-        <v>-0.06614520688241894</v>
+        <v>-0.07799244126663747</v>
       </c>
       <c r="D30">
-        <v>0.1603673559175853</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1657376997679359</v>
+      </c>
+      <c r="E30">
+        <v>0.0005871072747844513</v>
+      </c>
+      <c r="F30">
+        <v>0.04966400142327415</v>
+      </c>
+      <c r="G30">
+        <v>-0.04223937841980139</v>
+      </c>
+      <c r="H30">
+        <v>-0.0453082962920403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05454419622528935</v>
+        <v>0.03823800066858585</v>
       </c>
       <c r="C31">
-        <v>-0.07709036765692877</v>
+        <v>-0.08428077866147238</v>
       </c>
       <c r="D31">
-        <v>0.05998521283626574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04544465251925724</v>
+      </c>
+      <c r="E31">
+        <v>-0.007433916803762661</v>
+      </c>
+      <c r="F31">
+        <v>0.02677111871436374</v>
+      </c>
+      <c r="G31">
+        <v>-0.02040765079921662</v>
+      </c>
+      <c r="H31">
+        <v>-0.008303323035030348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02493592823345595</v>
+        <v>0.02294431093852974</v>
       </c>
       <c r="C32">
-        <v>-0.02711873054736313</v>
+        <v>-0.03270475548603234</v>
       </c>
       <c r="D32">
-        <v>0.1006256971841508</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1221226620887042</v>
+      </c>
+      <c r="E32">
+        <v>-0.03558684935391651</v>
+      </c>
+      <c r="F32">
+        <v>0.05304990377543406</v>
+      </c>
+      <c r="G32">
+        <v>-0.0358204810664072</v>
+      </c>
+      <c r="H32">
+        <v>-0.02013746418708704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02256042702158846</v>
+        <v>0.02127811046006046</v>
       </c>
       <c r="C33">
-        <v>-0.0456716646515622</v>
+        <v>-0.05227687093295912</v>
       </c>
       <c r="D33">
-        <v>0.1503301421055663</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.139102047800737</v>
+      </c>
+      <c r="E33">
+        <v>-0.01833390123452123</v>
+      </c>
+      <c r="F33">
+        <v>0.03565354113201798</v>
+      </c>
+      <c r="G33">
+        <v>-0.03711047680288364</v>
+      </c>
+      <c r="H33">
+        <v>-0.03604799619676771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03469610523725306</v>
+        <v>0.02345410819826105</v>
       </c>
       <c r="C34">
-        <v>-0.06296214374169962</v>
+        <v>-0.06537475854751773</v>
       </c>
       <c r="D34">
-        <v>0.06889993803209873</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04915889198222693</v>
+      </c>
+      <c r="E34">
+        <v>0.02203823515945292</v>
+      </c>
+      <c r="F34">
+        <v>-0.016391041983723</v>
+      </c>
+      <c r="G34">
+        <v>-0.0388964056997835</v>
+      </c>
+      <c r="H34">
+        <v>-0.03784978150487019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001533257694757399</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002119168577822158</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01080344462707051</v>
+      </c>
+      <c r="E35">
+        <v>0.0001195720859052966</v>
+      </c>
+      <c r="F35">
+        <v>0.0008539823743512734</v>
+      </c>
+      <c r="G35">
+        <v>-0.002012055541556773</v>
+      </c>
+      <c r="H35">
+        <v>-0.002511382969993201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01879722838079956</v>
+        <v>0.01708237360139281</v>
       </c>
       <c r="C36">
-        <v>-0.009121298216040836</v>
+        <v>-0.02017660983706817</v>
       </c>
       <c r="D36">
-        <v>0.09754043589690579</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08650749663619386</v>
+      </c>
+      <c r="E36">
+        <v>-0.009231003302448648</v>
+      </c>
+      <c r="F36">
+        <v>0.026871979904799</v>
+      </c>
+      <c r="G36">
+        <v>-0.01892890815311864</v>
+      </c>
+      <c r="H36">
+        <v>-0.04580257332733684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01841154165132223</v>
+        <v>0.02229185910377557</v>
       </c>
       <c r="C38">
-        <v>-0.01650666854766689</v>
+        <v>-0.02115261510939382</v>
       </c>
       <c r="D38">
-        <v>0.08560695578587546</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08371516784614438</v>
+      </c>
+      <c r="E38">
+        <v>-0.02609861203151932</v>
+      </c>
+      <c r="F38">
+        <v>-0.01912011046684655</v>
+      </c>
+      <c r="G38">
+        <v>-0.03369087554120424</v>
+      </c>
+      <c r="H38">
+        <v>-0.04314577843620076</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03741656646576279</v>
+        <v>0.02864712330516168</v>
       </c>
       <c r="C39">
-        <v>-0.05887107282738183</v>
+        <v>-0.07359276401685663</v>
       </c>
       <c r="D39">
-        <v>0.1086824290455878</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1090968857357604</v>
+      </c>
+      <c r="E39">
+        <v>0.01781443111766587</v>
+      </c>
+      <c r="F39">
+        <v>0.004453846786922577</v>
+      </c>
+      <c r="G39">
+        <v>-0.04500283575601505</v>
+      </c>
+      <c r="H39">
+        <v>-0.08059981764585507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01640778653533979</v>
+        <v>0.01174045024687596</v>
       </c>
       <c r="C40">
-        <v>-0.04417176939932157</v>
+        <v>-0.04049719499262752</v>
       </c>
       <c r="D40">
-        <v>0.09695642015206263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09533360273256578</v>
+      </c>
+      <c r="E40">
+        <v>-0.0237749025703267</v>
+      </c>
+      <c r="F40">
+        <v>0.07340835953699214</v>
+      </c>
+      <c r="G40">
+        <v>-0.2205519621660328</v>
+      </c>
+      <c r="H40">
+        <v>0.02446673739813956</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03018252280841273</v>
+        <v>0.02796256196636434</v>
       </c>
       <c r="C41">
-        <v>-0.004495599385801536</v>
+        <v>-0.01399908564545334</v>
       </c>
       <c r="D41">
-        <v>0.07156623293963515</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05306472648896458</v>
+      </c>
+      <c r="E41">
+        <v>-0.03882113546645763</v>
+      </c>
+      <c r="F41">
+        <v>0.0145144476743055</v>
+      </c>
+      <c r="G41">
+        <v>-0.04679323477784187</v>
+      </c>
+      <c r="H41">
+        <v>-0.02709613338217933</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02345720711163561</v>
+        <v>0.01928150696548903</v>
       </c>
       <c r="C43">
-        <v>-0.01377357916705739</v>
+        <v>-0.02092258958058244</v>
       </c>
       <c r="D43">
-        <v>0.1037726283389894</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07863134664685027</v>
+      </c>
+      <c r="E43">
+        <v>-0.01608277628947245</v>
+      </c>
+      <c r="F43">
+        <v>0.01229018431248552</v>
+      </c>
+      <c r="G43">
+        <v>-0.04404882341430342</v>
+      </c>
+      <c r="H43">
+        <v>-0.04237329042168128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01026445932360371</v>
+        <v>0.01134650331613063</v>
       </c>
       <c r="C44">
-        <v>-0.04419172085968821</v>
+        <v>-0.04492799353144696</v>
       </c>
       <c r="D44">
-        <v>0.09364197703975406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1108412043241612</v>
+      </c>
+      <c r="E44">
+        <v>-0.02300131784216231</v>
+      </c>
+      <c r="F44">
+        <v>0.02839948322676298</v>
+      </c>
+      <c r="G44">
+        <v>-0.03683901438164532</v>
+      </c>
+      <c r="H44">
+        <v>-0.037319080144836</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01422347335142342</v>
+        <v>0.009537324755968172</v>
       </c>
       <c r="C46">
-        <v>-0.02681342673534777</v>
+        <v>-0.03425001685112639</v>
       </c>
       <c r="D46">
-        <v>0.1064072192702624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09939456697353723</v>
+      </c>
+      <c r="E46">
+        <v>-0.004128341126993018</v>
+      </c>
+      <c r="F46">
+        <v>0.03000150179191914</v>
+      </c>
+      <c r="G46">
+        <v>-0.05049566278325834</v>
+      </c>
+      <c r="H46">
+        <v>-0.07521971197571506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09038114204990083</v>
+        <v>0.06774578188564094</v>
       </c>
       <c r="C47">
-        <v>-0.08801151596517749</v>
+        <v>-0.1038009550129785</v>
       </c>
       <c r="D47">
-        <v>0.03420463457587315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02565409551167088</v>
+      </c>
+      <c r="E47">
+        <v>-0.02263072776092111</v>
+      </c>
+      <c r="F47">
+        <v>0.004655125863688724</v>
+      </c>
+      <c r="G47">
+        <v>0.02455383704421465</v>
+      </c>
+      <c r="H47">
+        <v>0.02816445224770187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01161575956038133</v>
+        <v>0.01172055759305479</v>
       </c>
       <c r="C48">
-        <v>-0.0211802468085301</v>
+        <v>-0.02701624853217537</v>
       </c>
       <c r="D48">
-        <v>0.0871926961281015</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08588610315865905</v>
+      </c>
+      <c r="E48">
+        <v>-0.03772864126671161</v>
+      </c>
+      <c r="F48">
+        <v>0.03357537477994293</v>
+      </c>
+      <c r="G48">
+        <v>-0.03690226263457124</v>
+      </c>
+      <c r="H48">
+        <v>-0.05909314319412591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04984828134986238</v>
+        <v>0.03619464243186933</v>
       </c>
       <c r="C50">
-        <v>-0.06130522329154015</v>
+        <v>-0.07083575376216915</v>
       </c>
       <c r="D50">
-        <v>0.06287353203505681</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0548939375280687</v>
+      </c>
+      <c r="E50">
+        <v>-0.01461376700760479</v>
+      </c>
+      <c r="F50">
+        <v>0.02164619170902184</v>
+      </c>
+      <c r="G50">
+        <v>-0.03807834972860064</v>
+      </c>
+      <c r="H50">
+        <v>0.01423061843939398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.009099476626170616</v>
+        <v>0.007363940353761354</v>
       </c>
       <c r="C51">
-        <v>-0.01370920666938596</v>
+        <v>-0.02089992929407191</v>
       </c>
       <c r="D51">
-        <v>0.08481336633267166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08898302193230043</v>
+      </c>
+      <c r="E51">
+        <v>0.01492516684211437</v>
+      </c>
+      <c r="F51">
+        <v>0.04004004686591323</v>
+      </c>
+      <c r="G51">
+        <v>-0.05049775108522136</v>
+      </c>
+      <c r="H51">
+        <v>-0.02806791422258029</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1053773002764388</v>
+        <v>0.08715459005977645</v>
       </c>
       <c r="C53">
-        <v>-0.107188960932356</v>
+        <v>-0.1271820739479409</v>
       </c>
       <c r="D53">
-        <v>-0.00701043029909782</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.002843098103641523</v>
+      </c>
+      <c r="E53">
+        <v>-0.07078813173081011</v>
+      </c>
+      <c r="F53">
+        <v>0.07549046629711481</v>
+      </c>
+      <c r="G53">
+        <v>-0.006694246108256859</v>
+      </c>
+      <c r="H53">
+        <v>0.02709564626270529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01833721308175588</v>
+        <v>0.01637121417816677</v>
       </c>
       <c r="C54">
-        <v>-0.02748126084499807</v>
+        <v>-0.0348089743674421</v>
       </c>
       <c r="D54">
-        <v>0.1120872823971615</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09621396100223159</v>
+      </c>
+      <c r="E54">
+        <v>-0.01830254132819709</v>
+      </c>
+      <c r="F54">
+        <v>0.01838444659726999</v>
+      </c>
+      <c r="G54">
+        <v>-0.07357499836903447</v>
+      </c>
+      <c r="H54">
+        <v>-0.03502623620217974</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09788234310827627</v>
+        <v>0.0779041099012969</v>
       </c>
       <c r="C55">
-        <v>-0.08262194056993748</v>
+        <v>-0.1020348623795903</v>
       </c>
       <c r="D55">
-        <v>-0.0194034950959128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01894551783779095</v>
+      </c>
+      <c r="E55">
+        <v>-0.02463943497079865</v>
+      </c>
+      <c r="F55">
+        <v>0.05073115028085377</v>
+      </c>
+      <c r="G55">
+        <v>-0.02432308672997175</v>
+      </c>
+      <c r="H55">
+        <v>0.0477635085789828</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1350421558126917</v>
+        <v>0.107876057445572</v>
       </c>
       <c r="C56">
-        <v>-0.1152732896626531</v>
+        <v>-0.1494589755387614</v>
       </c>
       <c r="D56">
-        <v>-0.01976072285273649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02131882281209213</v>
+      </c>
+      <c r="E56">
+        <v>-0.04863002626192893</v>
+      </c>
+      <c r="F56">
+        <v>0.04105407682672136</v>
+      </c>
+      <c r="G56">
+        <v>-0.02062692325216627</v>
+      </c>
+      <c r="H56">
+        <v>0.06867971804150891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.009172763440399967</v>
+        <v>0.001301324254854062</v>
       </c>
       <c r="C58">
-        <v>-0.03923628852574297</v>
+        <v>-0.05113058223638767</v>
       </c>
       <c r="D58">
-        <v>0.1996852574591149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2669012253134727</v>
+      </c>
+      <c r="E58">
+        <v>-0.08638842919545534</v>
+      </c>
+      <c r="F58">
+        <v>0.1074072206140303</v>
+      </c>
+      <c r="G58">
+        <v>-0.07113461680774885</v>
+      </c>
+      <c r="H58">
+        <v>0.115956242804558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1505860900025602</v>
+        <v>0.1995932963245195</v>
       </c>
       <c r="C59">
-        <v>0.1683245758288356</v>
+        <v>0.1381290284739173</v>
       </c>
       <c r="D59">
-        <v>0.05298900526070693</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06688177340539776</v>
+      </c>
+      <c r="E59">
+        <v>-0.03940144139580701</v>
+      </c>
+      <c r="F59">
+        <v>-0.001809400385723119</v>
+      </c>
+      <c r="G59">
+        <v>0.01736037874716649</v>
+      </c>
+      <c r="H59">
+        <v>0.01676019907175743</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.236665579872305</v>
+        <v>0.2087081992992758</v>
       </c>
       <c r="C60">
-        <v>-0.08348932409254284</v>
+        <v>-0.1356811531449292</v>
       </c>
       <c r="D60">
-        <v>0.1707923837712578</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1038014682143104</v>
+      </c>
+      <c r="E60">
+        <v>0.3114031678144222</v>
+      </c>
+      <c r="F60">
+        <v>-0.1440296556239413</v>
+      </c>
+      <c r="G60">
+        <v>0.2042991480739198</v>
+      </c>
+      <c r="H60">
+        <v>0.05661047259973143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04156067104306831</v>
+        <v>0.03169394554567578</v>
       </c>
       <c r="C61">
-        <v>-0.05732320751851421</v>
+        <v>-0.06855725375657008</v>
       </c>
       <c r="D61">
-        <v>0.1150756222850756</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09547927567098895</v>
+      </c>
+      <c r="E61">
+        <v>0.01788639162180257</v>
+      </c>
+      <c r="F61">
+        <v>-0.006604432158395454</v>
+      </c>
+      <c r="G61">
+        <v>-0.02005142427588058</v>
+      </c>
+      <c r="H61">
+        <v>-0.06361497713066776</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01428337183296417</v>
+        <v>0.01134253831441893</v>
       </c>
       <c r="C63">
-        <v>-0.02656054218764545</v>
+        <v>-0.03481532034617842</v>
       </c>
       <c r="D63">
-        <v>0.08848335506177882</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0768888453170611</v>
+      </c>
+      <c r="E63">
+        <v>0.005284322740849431</v>
+      </c>
+      <c r="F63">
+        <v>0.02810576952772435</v>
+      </c>
+      <c r="G63">
+        <v>-0.03184060983869127</v>
+      </c>
+      <c r="H63">
+        <v>-0.0396946676896489</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05500291775184283</v>
+        <v>0.03926107887496683</v>
       </c>
       <c r="C64">
-        <v>-0.07185057713534916</v>
+        <v>-0.08250201985784389</v>
       </c>
       <c r="D64">
-        <v>0.04925019144749083</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04893425565618166</v>
+      </c>
+      <c r="E64">
+        <v>-0.002684346245010057</v>
+      </c>
+      <c r="F64">
+        <v>0.04614839211931748</v>
+      </c>
+      <c r="G64">
+        <v>0.01707389871699419</v>
+      </c>
+      <c r="H64">
+        <v>-0.09243384737369438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0302641279360545</v>
+        <v>0.0271014315470823</v>
       </c>
       <c r="C65">
-        <v>-0.02246420887123958</v>
+        <v>-0.03487248418192294</v>
       </c>
       <c r="D65">
-        <v>0.1137294834075574</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.106384227589171</v>
+      </c>
+      <c r="E65">
+        <v>0.01096289996198344</v>
+      </c>
+      <c r="F65">
+        <v>0.03197014178285813</v>
+      </c>
+      <c r="G65">
+        <v>-0.02797040065245606</v>
+      </c>
+      <c r="H65">
+        <v>-0.01199732048821934</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03988907753799336</v>
+        <v>0.0305578648174954</v>
       </c>
       <c r="C66">
-        <v>-0.06890605695691067</v>
+        <v>-0.0865542646261707</v>
       </c>
       <c r="D66">
-        <v>0.1234814032766627</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1345941369702003</v>
+      </c>
+      <c r="E66">
+        <v>0.0126959277498838</v>
+      </c>
+      <c r="F66">
+        <v>-0.005589923197520907</v>
+      </c>
+      <c r="G66">
+        <v>-0.02998130482212496</v>
+      </c>
+      <c r="H66">
+        <v>-0.04968323383824798</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04001339514896985</v>
+        <v>0.03759500192160684</v>
       </c>
       <c r="C67">
-        <v>-0.02297144943632836</v>
+        <v>-0.03078827520852271</v>
       </c>
       <c r="D67">
-        <v>0.0480842645239613</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03676827621134872</v>
+      </c>
+      <c r="E67">
+        <v>-0.00386266464417442</v>
+      </c>
+      <c r="F67">
+        <v>-0.03394965489186685</v>
+      </c>
+      <c r="G67">
+        <v>-0.03156310398364337</v>
+      </c>
+      <c r="H67">
+        <v>-0.05305188072459524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1847862763307407</v>
+        <v>0.2304959962863397</v>
       </c>
       <c r="C68">
-        <v>0.1993279019772972</v>
+        <v>0.1568024817946862</v>
       </c>
       <c r="D68">
-        <v>0.02110210730347973</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02665858597182047</v>
+      </c>
+      <c r="E68">
+        <v>-0.01249624252293472</v>
+      </c>
+      <c r="F68">
+        <v>0.03812842085053735</v>
+      </c>
+      <c r="G68">
+        <v>-0.03108180802520519</v>
+      </c>
+      <c r="H68">
+        <v>0.05294378661917051</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08368080755956993</v>
+        <v>0.06094692962890269</v>
       </c>
       <c r="C69">
-        <v>-0.1031637267815856</v>
+        <v>-0.1097882851671156</v>
       </c>
       <c r="D69">
-        <v>0.06247237173209959</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03786082361535933</v>
+      </c>
+      <c r="E69">
+        <v>0.001150936412463232</v>
+      </c>
+      <c r="F69">
+        <v>0.001470264938386857</v>
+      </c>
+      <c r="G69">
+        <v>0.005997602438719355</v>
+      </c>
+      <c r="H69">
+        <v>0.01095144247804118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1728421347634401</v>
+        <v>0.2193740880606438</v>
       </c>
       <c r="C71">
-        <v>0.2080880015544555</v>
+        <v>0.1675416984971211</v>
       </c>
       <c r="D71">
-        <v>0.01927955723334432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02564383342573889</v>
+      </c>
+      <c r="E71">
+        <v>-0.02849573063819043</v>
+      </c>
+      <c r="F71">
+        <v>0.05610817589646884</v>
+      </c>
+      <c r="G71">
+        <v>-0.05099880153553157</v>
+      </c>
+      <c r="H71">
+        <v>0.06162898146233849</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1119095299373376</v>
+        <v>0.09295083656048791</v>
       </c>
       <c r="C72">
-        <v>-0.06607742451378779</v>
+        <v>-0.09779802070504791</v>
       </c>
       <c r="D72">
-        <v>0.08632108906652851</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08100194460513199</v>
+      </c>
+      <c r="E72">
+        <v>0.06716512896595107</v>
+      </c>
+      <c r="F72">
+        <v>0.02357845186352397</v>
+      </c>
+      <c r="G72">
+        <v>-0.01081722279472805</v>
+      </c>
+      <c r="H72">
+        <v>-0.0394276053384518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2145710885877191</v>
+        <v>0.1887705676094921</v>
       </c>
       <c r="C73">
-        <v>-0.04476058783370398</v>
+        <v>-0.1082037202464166</v>
       </c>
       <c r="D73">
-        <v>0.2654638731132064</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1308356335244484</v>
+      </c>
+      <c r="E73">
+        <v>0.5608669543362962</v>
+      </c>
+      <c r="F73">
+        <v>-0.1848633186866763</v>
+      </c>
+      <c r="G73">
+        <v>0.286557305351169</v>
+      </c>
+      <c r="H73">
+        <v>0.1046936602088468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.110244098509491</v>
+        <v>0.08550166256785439</v>
       </c>
       <c r="C74">
-        <v>-0.08983253500755231</v>
+        <v>-0.1138699754282554</v>
       </c>
       <c r="D74">
-        <v>-0.03285180895291071</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03607549337932656</v>
+      </c>
+      <c r="E74">
+        <v>-0.03080837110596912</v>
+      </c>
+      <c r="F74">
+        <v>0.0643350171526399</v>
+      </c>
+      <c r="G74">
+        <v>0.01855423049987896</v>
+      </c>
+      <c r="H74">
+        <v>0.03824571924278761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2571948275938527</v>
+        <v>0.2065308699538613</v>
       </c>
       <c r="C75">
-        <v>-0.1559969653401433</v>
+        <v>-0.2093941374087912</v>
       </c>
       <c r="D75">
-        <v>-0.1231605110200761</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1371031653035586</v>
+      </c>
+      <c r="E75">
+        <v>-0.08796907431547604</v>
+      </c>
+      <c r="F75">
+        <v>-0.007190239796557948</v>
+      </c>
+      <c r="G75">
+        <v>-0.02729913871743498</v>
+      </c>
+      <c r="H75">
+        <v>0.0558343518514204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1455777384281846</v>
+        <v>0.112751843341269</v>
       </c>
       <c r="C76">
-        <v>-0.1178285638710495</v>
+        <v>-0.1468933381496953</v>
       </c>
       <c r="D76">
-        <v>-0.01924862388106589</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02864318071230502</v>
+      </c>
+      <c r="E76">
+        <v>-0.06262585913657005</v>
+      </c>
+      <c r="F76">
+        <v>0.03299925353151972</v>
+      </c>
+      <c r="G76">
+        <v>-0.0430442457068783</v>
+      </c>
+      <c r="H76">
+        <v>-0.003543999027066678</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.04277804466438467</v>
+        <v>0.053055919035478</v>
       </c>
       <c r="C77">
-        <v>-0.07690665354870073</v>
+        <v>-0.0798983382948678</v>
       </c>
       <c r="D77">
-        <v>0.03922171099377884</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1824346442492936</v>
+      </c>
+      <c r="E77">
+        <v>-0.5558406100343286</v>
+      </c>
+      <c r="F77">
+        <v>-0.5244770825808965</v>
+      </c>
+      <c r="G77">
+        <v>0.3009462232639202</v>
+      </c>
+      <c r="H77">
+        <v>0.4103984899282304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04150604347497821</v>
+        <v>0.03616557525701463</v>
       </c>
       <c r="C78">
-        <v>-0.06386130605595629</v>
+        <v>-0.07672122116102482</v>
       </c>
       <c r="D78">
-        <v>0.1424250839327875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1395118180827368</v>
+      </c>
+      <c r="E78">
+        <v>0.003138017370751053</v>
+      </c>
+      <c r="F78">
+        <v>0.03521158671857939</v>
+      </c>
+      <c r="G78">
+        <v>0.005472069587950114</v>
+      </c>
+      <c r="H78">
+        <v>-0.002802036903887447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.06257462760598625</v>
+        <v>0.05265960146924169</v>
       </c>
       <c r="C79">
-        <v>-0.1078671856285403</v>
+        <v>-0.1224696654175906</v>
       </c>
       <c r="D79">
-        <v>-0.1409202184368802</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0606710257233283</v>
+      </c>
+      <c r="E79">
+        <v>-0.2064706024630251</v>
+      </c>
+      <c r="F79">
+        <v>0.609457472074692</v>
+      </c>
+      <c r="G79">
+        <v>0.6470298500236723</v>
+      </c>
+      <c r="H79">
+        <v>-0.0870055544717364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02028266785077592</v>
+        <v>0.01661836905208508</v>
       </c>
       <c r="C80">
-        <v>-0.0483127661540396</v>
+        <v>-0.04810413312819226</v>
       </c>
       <c r="D80">
-        <v>0.02789612189722303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02593225685546342</v>
+      </c>
+      <c r="E80">
+        <v>-0.002333532082934945</v>
+      </c>
+      <c r="F80">
+        <v>0.02446965256987829</v>
+      </c>
+      <c r="G80">
+        <v>-0.05663666384500411</v>
+      </c>
+      <c r="H80">
+        <v>-0.003844475987824032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.133066775191195</v>
+        <v>0.09932299035232474</v>
       </c>
       <c r="C81">
-        <v>-0.121311948780389</v>
+        <v>-0.1431776095629556</v>
       </c>
       <c r="D81">
-        <v>-0.09768053276919079</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09596032876188433</v>
+      </c>
+      <c r="E81">
+        <v>-0.09090389553147502</v>
+      </c>
+      <c r="F81">
+        <v>0.05118088592797389</v>
+      </c>
+      <c r="G81">
+        <v>-0.04163405141484776</v>
+      </c>
+      <c r="H81">
+        <v>-0.006229973258247055</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2650885597431525</v>
+        <v>0.1921113951372186</v>
       </c>
       <c r="C82">
-        <v>-0.246641938510389</v>
+        <v>-0.2739907845702126</v>
       </c>
       <c r="D82">
-        <v>-0.2298583936925628</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2308635602339523</v>
+      </c>
+      <c r="E82">
+        <v>-0.01440369675614411</v>
+      </c>
+      <c r="F82">
+        <v>-0.0753233492101493</v>
+      </c>
+      <c r="G82">
+        <v>-0.05699132674880033</v>
+      </c>
+      <c r="H82">
+        <v>0.006118970465197716</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02542783884099581</v>
+        <v>0.01425708427707075</v>
       </c>
       <c r="C83">
-        <v>-0.06093030783317842</v>
+        <v>-0.0568983824759102</v>
       </c>
       <c r="D83">
-        <v>0.0549795504206676</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.06049252238351082</v>
+      </c>
+      <c r="E83">
+        <v>-0.05881525738849271</v>
+      </c>
+      <c r="F83">
+        <v>-0.07778252225805168</v>
+      </c>
+      <c r="G83">
+        <v>0.02853958108822716</v>
+      </c>
+      <c r="H83">
+        <v>-0.0315030959647696</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001482219315984799</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.007856309121644754</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02402387524805928</v>
+      </c>
+      <c r="E84">
+        <v>-0.01333406607173667</v>
+      </c>
+      <c r="F84">
+        <v>0.02396106404953635</v>
+      </c>
+      <c r="G84">
+        <v>-0.02699901707174581</v>
+      </c>
+      <c r="H84">
+        <v>-0.002282429042377333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1672596927407137</v>
+        <v>0.1298054644086835</v>
       </c>
       <c r="C85">
-        <v>-0.1259064642341529</v>
+        <v>-0.1659768376138701</v>
       </c>
       <c r="D85">
-        <v>-0.06532883032882046</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.087740514042559</v>
+      </c>
+      <c r="E85">
+        <v>-0.01815193859903774</v>
+      </c>
+      <c r="F85">
+        <v>0.07940770168764223</v>
+      </c>
+      <c r="G85">
+        <v>0.01300532136665069</v>
+      </c>
+      <c r="H85">
+        <v>-0.01435864345214984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02041591572699162</v>
+        <v>0.01774630235270368</v>
       </c>
       <c r="C86">
-        <v>-0.03500992736165522</v>
+        <v>-0.03642174808304564</v>
       </c>
       <c r="D86">
-        <v>0.1176857036500255</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1216476735026552</v>
+      </c>
+      <c r="E86">
+        <v>-0.02031913575842983</v>
+      </c>
+      <c r="F86">
+        <v>-0.02718312775011096</v>
+      </c>
+      <c r="G86">
+        <v>-0.003530067073225644</v>
+      </c>
+      <c r="H86">
+        <v>0.06420653410368865</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02758263822519616</v>
+        <v>0.02981036830007419</v>
       </c>
       <c r="C87">
-        <v>-0.02632180933392407</v>
+        <v>-0.04015145038216444</v>
       </c>
       <c r="D87">
-        <v>0.1211486527117367</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1441989303766386</v>
+      </c>
+      <c r="E87">
+        <v>-0.04273513131306303</v>
+      </c>
+      <c r="F87">
+        <v>0.03512324891381936</v>
+      </c>
+      <c r="G87">
+        <v>-0.04480439546625287</v>
+      </c>
+      <c r="H87">
+        <v>-0.0392440075403594</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.06818397824701952</v>
+        <v>0.05437236521628585</v>
       </c>
       <c r="C88">
-        <v>-0.04683648557084891</v>
+        <v>-0.06272466797751412</v>
       </c>
       <c r="D88">
-        <v>0.04768921835309457</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0210103506377293</v>
+      </c>
+      <c r="E88">
+        <v>0.003887766191909207</v>
+      </c>
+      <c r="F88">
+        <v>0.03634565346320015</v>
+      </c>
+      <c r="G88">
+        <v>-0.0175311723387164</v>
+      </c>
+      <c r="H88">
+        <v>-0.02584660701193623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2750240864118429</v>
+        <v>0.3433657203594875</v>
       </c>
       <c r="C89">
-        <v>0.3735465877382927</v>
+        <v>0.2913260705280441</v>
       </c>
       <c r="D89">
-        <v>0.009216326499079785</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01832078820902276</v>
+      </c>
+      <c r="E89">
+        <v>-0.05605528466900855</v>
+      </c>
+      <c r="F89">
+        <v>-0.00512975752479508</v>
+      </c>
+      <c r="G89">
+        <v>-0.02749188337626613</v>
+      </c>
+      <c r="H89">
+        <v>-0.2296889787401397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2230525450136085</v>
+        <v>0.2728698123997471</v>
       </c>
       <c r="C90">
-        <v>0.2751673650723643</v>
+        <v>0.2080435167791865</v>
       </c>
       <c r="D90">
-        <v>0.02381576193165991</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03399485596399725</v>
+      </c>
+      <c r="E90">
+        <v>-0.03412185542583027</v>
+      </c>
+      <c r="F90">
+        <v>0.005355143149664222</v>
+      </c>
+      <c r="G90">
+        <v>-0.07118677884651091</v>
+      </c>
+      <c r="H90">
+        <v>0.03675990296703102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1704052326859289</v>
+        <v>0.1279016659882554</v>
       </c>
       <c r="C91">
-        <v>-0.1662901081205531</v>
+        <v>-0.1856930086658996</v>
       </c>
       <c r="D91">
-        <v>-0.1234196976774122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1153136684852887</v>
+      </c>
+      <c r="E91">
+        <v>-0.09801027157230841</v>
+      </c>
+      <c r="F91">
+        <v>0.07046316292396768</v>
+      </c>
+      <c r="G91">
+        <v>0.02642956997451473</v>
+      </c>
+      <c r="H91">
+        <v>0.02023734929209027</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1893822906925372</v>
+        <v>0.261826915547232</v>
       </c>
       <c r="C92">
-        <v>0.2683334761706092</v>
+        <v>0.2316388746009864</v>
       </c>
       <c r="D92">
-        <v>0.01746103664688889</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0335249148539721</v>
+      </c>
+      <c r="E92">
+        <v>-0.1004573616048541</v>
+      </c>
+      <c r="F92">
+        <v>0.03320394471928594</v>
+      </c>
+      <c r="G92">
+        <v>-0.0449760565516545</v>
+      </c>
+      <c r="H92">
+        <v>-0.02432173123169421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2428971578614723</v>
+        <v>0.2897148135185096</v>
       </c>
       <c r="C93">
-        <v>0.2972523555694306</v>
+        <v>0.2236314745255572</v>
       </c>
       <c r="D93">
-        <v>0.02445578026599263</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004240877357669032</v>
+      </c>
+      <c r="E93">
+        <v>0.02490929520195329</v>
+      </c>
+      <c r="F93">
+        <v>0.04074389350248663</v>
+      </c>
+      <c r="G93">
+        <v>0.01542979738203185</v>
+      </c>
+      <c r="H93">
+        <v>0.03579589340829099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3518453868899398</v>
+        <v>0.2789248902993106</v>
       </c>
       <c r="C94">
-        <v>-0.210901633813321</v>
+        <v>-0.2906316933404411</v>
       </c>
       <c r="D94">
-        <v>-0.3630151224562873</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3782433033525426</v>
+      </c>
+      <c r="E94">
+        <v>-0.04323101884158061</v>
+      </c>
+      <c r="F94">
+        <v>-0.06270826728780016</v>
+      </c>
+      <c r="G94">
+        <v>-0.3245259638248211</v>
+      </c>
+      <c r="H94">
+        <v>-0.02059055215975539</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06199057849703059</v>
+        <v>0.05605450521061844</v>
       </c>
       <c r="C95">
-        <v>-0.05010768453199202</v>
+        <v>-0.06577814620318688</v>
       </c>
       <c r="D95">
-        <v>0.1123371332505639</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1104835573735259</v>
+      </c>
+      <c r="E95">
+        <v>-0.1798266229806504</v>
+      </c>
+      <c r="F95">
+        <v>-0.3708755609143436</v>
+      </c>
+      <c r="G95">
+        <v>0.18456742306703</v>
+      </c>
+      <c r="H95">
+        <v>-0.6925324730212339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-5.282523741943236e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0002678428853174254</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0002535211167880662</v>
+      </c>
+      <c r="E97">
+        <v>0.0005300178780029099</v>
+      </c>
+      <c r="F97">
+        <v>0.0001440168724593516</v>
+      </c>
+      <c r="G97">
+        <v>-0.0002373104813051296</v>
+      </c>
+      <c r="H97">
+        <v>-0.0001742192337019085</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1751923951768539</v>
+        <v>0.1577152658120617</v>
       </c>
       <c r="C98">
-        <v>-0.06017168350541793</v>
+        <v>-0.1062815047557266</v>
       </c>
       <c r="D98">
-        <v>0.1430499866302205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.08696788306273212</v>
+      </c>
+      <c r="E98">
+        <v>0.3179158910171853</v>
+      </c>
+      <c r="F98">
+        <v>-0.1025113086885725</v>
+      </c>
+      <c r="G98">
+        <v>0.156134060484929</v>
+      </c>
+      <c r="H98">
+        <v>0.0566798555193653</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003266959227429416</v>
+        <v>0.004668626325528371</v>
       </c>
       <c r="C101">
-        <v>-0.02418299702807133</v>
+        <v>-0.02754030099934225</v>
       </c>
       <c r="D101">
-        <v>0.09842849224668246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1034047277190227</v>
+      </c>
+      <c r="E101">
+        <v>0.005203834450717706</v>
+      </c>
+      <c r="F101">
+        <v>0.04603329934803686</v>
+      </c>
+      <c r="G101">
+        <v>-0.06075838990304657</v>
+      </c>
+      <c r="H101">
+        <v>-0.06406320857418273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1233506677563821</v>
+        <v>0.08583136543526157</v>
       </c>
       <c r="C102">
-        <v>-0.128539039681537</v>
+        <v>-0.1350428034173205</v>
       </c>
       <c r="D102">
-        <v>-0.09529227306841448</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0972663103265213</v>
+      </c>
+      <c r="E102">
+        <v>-0.02705722461161177</v>
+      </c>
+      <c r="F102">
+        <v>-0.04769461474038685</v>
+      </c>
+      <c r="G102">
+        <v>-0.01281282748409285</v>
+      </c>
+      <c r="H102">
+        <v>-0.009177078392163241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
